--- a/Templates/metabolic rate/8_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/8_template_metabolic_rate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA675DE-8FC1-44D2-AA20-98B6B4AED9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF436AB-8CF9-4C5B-8E52-9CCCD0A054BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="ShareTrait_metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="7" r:id="rId2"/>
+    <sheet name="data" sheetId="4" r:id="rId1"/>
+    <sheet name="ShareTrait_metadata" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShareTrait_metadata!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ShareTrait_metadata!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="141">
   <si>
     <t>Column_name</t>
   </si>
@@ -136,12 +136,6 @@
     <t>respiration_volume</t>
   </si>
   <si>
-    <t>delay_time</t>
-  </si>
-  <si>
-    <t>respiratory_chamber_material</t>
-  </si>
-  <si>
     <t>incubation_time</t>
   </si>
   <si>
@@ -172,18 +166,6 @@
     <t>test_temperature</t>
   </si>
   <si>
-    <t>test_oxygen</t>
-  </si>
-  <si>
-    <t>test_carbon_dioxide</t>
-  </si>
-  <si>
-    <t>test_oxygen_units</t>
-  </si>
-  <si>
-    <t>test_carbon_dioxide_units</t>
-  </si>
-  <si>
     <t>reproductive_stage</t>
   </si>
   <si>
@@ -247,6 +229,45 @@
     <t>comments_timing</t>
   </si>
   <si>
+    <t>scaling</t>
+  </si>
+  <si>
+    <t>intercept_error_estimate</t>
+  </si>
+  <si>
+    <t>intercept_error_type</t>
+  </si>
+  <si>
+    <t>slope_error_estimate</t>
+  </si>
+  <si>
+    <t>slope_error_type</t>
+  </si>
+  <si>
+    <t>intercept_estimate</t>
+  </si>
+  <si>
+    <t>slope_estimate</t>
+  </si>
+  <si>
+    <t>intercept_lower_range_estimate</t>
+  </si>
+  <si>
+    <t>intercept_upper_range_estimate</t>
+  </si>
+  <si>
+    <t>scaling_sample_size</t>
+  </si>
+  <si>
+    <t>comments_scaling</t>
+  </si>
+  <si>
+    <t>slope_lower_range_estimate</t>
+  </si>
+  <si>
+    <t>slope_upper_range_estimate</t>
+  </si>
+  <si>
     <t>Name of the contact person established in the reference, usually the same as the corresponding author. Names and surnames are separated by "_". Example: Share_Trait</t>
   </si>
   <si>
@@ -298,15 +319,6 @@
     <t>Test temperature</t>
   </si>
   <si>
-    <t>Test oxygen</t>
-  </si>
-  <si>
-    <t>kPa: kilopascals; sat: saturation; mg_l: miligrams per liter; mL_L: mililiters per liter)</t>
-  </si>
-  <si>
-    <t>ppm: parts per million; atm: atmosphere; micro-atm: micro atmostphere</t>
-  </si>
-  <si>
     <t>type of metabolic rate</t>
   </si>
   <si>
@@ -328,15 +340,6 @@
     <t>mililiter</t>
   </si>
   <si>
-    <t>Provide wait (delay) time excluded from closed measurement cycles. Also referred as equilibration period.</t>
-  </si>
-  <si>
-    <t>Material of respirometer</t>
-  </si>
-  <si>
-    <t>glass; plastic; acrylic</t>
-  </si>
-  <si>
     <t>Time spend in the respirometry chamber</t>
   </si>
   <si>
@@ -394,13 +397,7 @@
     <t>celcius degres</t>
   </si>
   <si>
-    <t>Test carbon dioxide</t>
-  </si>
-  <si>
-    <t>Units used to express the oxygen during testing</t>
-  </si>
-  <si>
-    <t>Units used to express the carbon dioxide during testing</t>
+    <t>Relevant notes about the scaling</t>
   </si>
   <si>
     <t>Number of individuals tested for respiration estimate</t>
@@ -416,6 +413,39 @@
   </si>
   <si>
     <t>mgO2-h-ind; mgO2-h-gFM; mlCO2-h-gFM; etc</t>
+  </si>
+  <si>
+    <t>Error associated with the intercept estimate</t>
+  </si>
+  <si>
+    <t>Error associated with the slope estimate</t>
+  </si>
+  <si>
+    <t>Number of measurements used to estimate the scaling relationship</t>
+  </si>
+  <si>
+    <t>Type of metric used to slope error</t>
+  </si>
+  <si>
+    <t>Type of metric used to intercept error</t>
+  </si>
+  <si>
+    <t>Estimate of the intercept</t>
+  </si>
+  <si>
+    <t>Upper range of the slope estimate</t>
+  </si>
+  <si>
+    <t>Lower range of the slope estimate</t>
+  </si>
+  <si>
+    <t>Estimate of the slope</t>
+  </si>
+  <si>
+    <t>Upper range of the intercept estimate</t>
+  </si>
+  <si>
+    <t>Lower range of the intercept estimate</t>
   </si>
   <si>
     <t>origin</t>
@@ -450,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +547,12 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -545,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +620,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -613,6 +654,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,12 +972,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652819D4-7C12-4E32-AC50-C1B6FFA8FA00}">
+  <dimension ref="AW1:CY1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BF11" sqref="BF11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="49:103" x14ac:dyDescent="0.25">
+      <c r="AW1" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH1" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ1" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL1" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO1" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS1" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="CA1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="CC1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="CD1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="CE1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF1" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="CH1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="CI1" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="CL1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="CM1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="CN1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="CO1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="CP1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="CQ1" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR1" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="CS1" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="CT1" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CU1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CV1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="CW1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="CX1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="CY1" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,10 +1191,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1</v>
@@ -976,10 +1205,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -993,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>1</v>
@@ -1007,7 +1236,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>1</v>
@@ -1018,10 +1247,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>1</v>
@@ -1035,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>1</v>
@@ -1077,10 +1306,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>1</v>
@@ -1133,7 +1362,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>1</v>
@@ -1144,13 +1373,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>1</v>
@@ -1172,10 +1401,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>1</v>
@@ -1183,433 +1412,545 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>92</v>
+      <c r="C21" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>94</v>
+      <c r="C22" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>96</v>
+      <c r="C23" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>86</v>
+      <c r="C24" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>97</v>
+      <c r="C25" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>100</v>
+      <c r="C27" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>102</v>
+      <c r="C28" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>103</v>
+      <c r="C29" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>107</v>
+      <c r="C30" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>108</v>
+      <c r="C31" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>111</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="17"/>
+        <v>42</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>115</v>
+      <c r="C35" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>117</v>
+      <c r="C36" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="24" t="s">
+      <c r="C45" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="D56" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1618,163 +1959,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C55D870-D3D5-40B3-A182-A227F4FBAA83}">
-  <dimension ref="A1:AU1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM1" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO1" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP1" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ1" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU1" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>